--- a/CRM.xlsx
+++ b/CRM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\CompanyResearchModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denni\Desktop\ModelsResearchMetrics\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F057D503-5BF9-4AF4-AAE6-4ABA9926C889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E262D6-7254-47CB-8F4D-6F6B7B415A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{380F9A3C-78F0-471C-ACD5-A994E8348AA5}"/>
+    <workbookView xWindow="345" yWindow="135" windowWidth="14235" windowHeight="15495" xr2:uid="{380F9A3C-78F0-471C-ACD5-A994E8348AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +36,119 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fidel</author>
+  </authors>
+  <commentList>
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{E17B08DD-61C3-4122-AFC4-6B3341C43516}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+$9.71 - $9.76 billion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL3" authorId="0" shapeId="0" xr:uid="{D3305E33-8313-463A-B17E-C3AAE51055B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+approximately 8.5% Y/Y
+approximately 9% in CC</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{13692A58-8A2C-4B45-9DE8-350D286CFA77}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+ $40.5 billion to $40.9 billion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W17" authorId="0" shapeId="0" xr:uid="{F8616C4C-BCDE-446C-9CA1-CE12C6E773D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fidel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Guidance:
+$1.49 - $1.51</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Price</t>
   </si>
@@ -87,9 +198,6 @@
     <t>OpIn</t>
   </si>
   <si>
-    <t>Interest income</t>
-  </si>
-  <si>
     <t>Pretax</t>
   </si>
   <si>
@@ -154,17 +262,63 @@
   </si>
   <si>
     <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Operating margin</t>
+  </si>
+  <si>
+    <t>Net margin</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Cash flow growth 10%</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="d/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="0\x"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -172,6 +326,26 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -192,10 +366,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -215,13 +390,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -235,6 +417,115 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D81DB2-29DB-5BDE-68FE-8A5E1564D882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20888325" y="0"/>
+          <a:ext cx="0" cy="6315075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAA0BA0-86E4-465C-A8B9-69C19D773FFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13601700" y="19050"/>
+          <a:ext cx="0" cy="6315075"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,64 +845,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62151567-D280-4CD9-9684-ED68D87C2B39}">
-  <dimension ref="L5:M10"/>
+  <dimension ref="K2:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L5" t="s">
+    <row r="2" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="1">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L6" t="s">
+      <c r="L2" s="14">
+        <v>261.91000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="1">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L7" t="s">
+      <c r="L3" s="1">
+        <f>+Model!V18</f>
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
-        <f>+M6*M5</f>
-        <v>224808</v>
-      </c>
-    </row>
-    <row r="8" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L8" t="s">
+      <c r="L4" s="1">
+        <f>+L3*L2</f>
+        <v>255100.34000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="1">
-        <f>9958+7712+4978</f>
-        <v>22648</v>
-      </c>
-    </row>
-    <row r="9" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L9" t="s">
+      <c r="L5" s="1">
+        <f>8848+5184+4852</f>
+        <v>18884</v>
+      </c>
+    </row>
+    <row r="6" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="1">
-        <f>1000+8429</f>
-        <v>9429</v>
-      </c>
-    </row>
-    <row r="10" spans="12:13" x14ac:dyDescent="0.2">
-      <c r="L10" t="s">
+      <c r="L6" s="1">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="7" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="1">
-        <f>+M7-M8+M9</f>
-        <v>211589</v>
+      <c r="L7" s="1">
+        <f>+L4-L5+L6</f>
+        <v>244649.34000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12434</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="15">
+        <f>+L7/L8</f>
+        <v>19.675835612031527</v>
       </c>
     </row>
   </sheetData>
@@ -620,18 +928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB764FB1-C70B-4E2F-A815-3C9F0FDAA33C}">
-  <dimension ref="A2:R23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB764FB1-C70B-4E2F-A815-3C9F0FDAA33C}">
+  <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="10.140625" style="3" bestFit="1" customWidth="1"/>
@@ -640,286 +949,1190 @@
     <col min="16" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="K2" s="9">
+    <row r="1" spans="1:46" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="12">
         <v>45046</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P1" s="12">
+        <v>45138</v>
+      </c>
+      <c r="Q1" s="12">
+        <v>45230</v>
+      </c>
+      <c r="R1" s="12">
+        <v>45322</v>
+      </c>
+      <c r="S1" s="12">
         <v>45412</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" s="2" t="s">
+      <c r="T1" s="12">
+        <v>45504</v>
+      </c>
+      <c r="U1" s="12">
+        <v>45596</v>
+      </c>
+      <c r="V1" s="12">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>+Z2+1</f>
+        <v>2015</v>
+      </c>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AT2" si="0">+AA2+1</f>
+        <v>2016</v>
+      </c>
+      <c r="AC2" s="2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="AD2" s="2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="AE2" s="2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AF2" s="2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AG2" s="2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AH2" s="2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AI2" s="2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AJ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AK2" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AL2" s="2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AM2" s="2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AN2" s="2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AO2" s="2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AP2" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AQ2" s="2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AR2" s="2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AS2" s="2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AT2" s="2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3">
+        <v>7642</v>
+      </c>
+      <c r="P3" s="3">
+        <v>8006</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>8141</v>
+      </c>
+      <c r="R3" s="3">
+        <v>8748</v>
+      </c>
+      <c r="S3" s="3">
+        <v>8585</v>
+      </c>
+      <c r="T3" s="3">
+        <v>8764</v>
+      </c>
+      <c r="U3" s="3">
+        <v>8879</v>
+      </c>
+      <c r="V3" s="3">
+        <v>9451</v>
+      </c>
+      <c r="W3" s="3">
+        <v>9760</v>
+      </c>
+      <c r="AJ3" s="3">
+        <f>+SUM(O3:R3)</f>
+        <v>32537</v>
+      </c>
+      <c r="AK3" s="3">
+        <f>+SUM(S3:V3)</f>
+        <v>35679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>7642</v>
+        <v>7</v>
       </c>
       <c r="O4" s="3">
-        <v>8585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="3">
         <v>605</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P4" s="3">
+        <v>597</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>579</v>
+      </c>
+      <c r="R4" s="3">
+        <v>539</v>
+      </c>
+      <c r="S4" s="3">
         <v>548</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
+      <c r="T4" s="3">
+        <v>561</v>
+      </c>
+      <c r="U4" s="3">
+        <v>565</v>
+      </c>
+      <c r="V4" s="3">
+        <v>542</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f>+SUM(O4:R4)</f>
+        <v>2320</v>
+      </c>
+      <c r="AK4" s="3">
+        <f>+SUM(S4:V4)</f>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="6">
-        <f>+K4+K5</f>
+      <c r="O5" s="6">
+        <f>+O3+O4</f>
         <v>8247</v>
       </c>
-      <c r="O6" s="6">
-        <f>+O4+O5</f>
+      <c r="P5" s="6">
+        <f>+P3+P4</f>
+        <v>8603</v>
+      </c>
+      <c r="Q5" s="6">
+        <f>+Q3+Q4</f>
+        <v>8720</v>
+      </c>
+      <c r="R5" s="6">
+        <f>+R3+R4</f>
+        <v>9287</v>
+      </c>
+      <c r="S5" s="6">
+        <f>+S3+S4</f>
         <v>9133</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="T5" s="6">
+        <f>+T3+T4</f>
+        <v>9325</v>
+      </c>
+      <c r="U5" s="6">
+        <f>+U3+U4</f>
+        <v>9444</v>
+      </c>
+      <c r="V5" s="6">
+        <f>+V3+V4</f>
+        <v>9993</v>
+      </c>
+      <c r="AJ5" s="6">
+        <f>+AJ3+AJ4</f>
+        <v>34857</v>
+      </c>
+      <c r="AK5" s="6">
+        <f>+AK3+AK4</f>
+        <v>37895</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>40900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="3">
+      <c r="O6" s="3">
         <f>1510+615</f>
         <v>2125</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P6" s="3">
+        <v>2113</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>2155</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2148</v>
+      </c>
+      <c r="S6" s="3">
         <f>1560+602</f>
         <v>2162</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="3">
+        <v>2159</v>
+      </c>
+      <c r="U6" s="3">
+        <v>2105</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2217</v>
+      </c>
+      <c r="AJ6" s="3">
+        <f>+SUM(O6:R6)</f>
+        <v>8541</v>
+      </c>
+      <c r="AK6" s="3">
+        <f>+SUM(S6:V6)</f>
+        <v>8643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="6">
+        <f>+O5-O6</f>
+        <v>6122</v>
+      </c>
+      <c r="P7" s="6">
+        <f>+P5-P6</f>
+        <v>6490</v>
+      </c>
+      <c r="Q7" s="6">
+        <f>+Q5-Q6</f>
+        <v>6565</v>
+      </c>
+      <c r="R7" s="6">
+        <f>+R5-R6</f>
+        <v>7139</v>
+      </c>
+      <c r="S7" s="6">
+        <f>+S5-S6</f>
+        <v>6971</v>
+      </c>
+      <c r="T7" s="6">
+        <f>+T5-T6</f>
+        <v>7166</v>
+      </c>
+      <c r="U7" s="6">
+        <f>+U5-U6</f>
+        <v>7339</v>
+      </c>
+      <c r="V7" s="6">
+        <f>+V5-V6</f>
+        <v>7776</v>
+      </c>
+      <c r="AJ7" s="6">
+        <f>+AJ5-AJ6</f>
+        <v>26316</v>
+      </c>
+      <c r="AK7" s="6">
+        <f>+AK5-AK6</f>
+        <v>29252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3">
-        <f>+K6-K7</f>
-        <v>6122</v>
+        <v>11</v>
       </c>
       <c r="O8" s="3">
-        <f>+O6-O7</f>
-        <v>6971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1207</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1220</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1204</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1275</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1368</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1349</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1356</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1420</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f t="shared" ref="AJ8:AJ10" si="1">+SUM(O8:R8)</f>
+        <v>4906</v>
+      </c>
+      <c r="AK8" s="3">
+        <f t="shared" ref="AJ8:AK10" si="2">+SUM(S8:V8)</f>
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1207</v>
+        <v>12</v>
       </c>
       <c r="O9" s="3">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>3154</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3113</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3173</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3437</v>
+      </c>
+      <c r="S9" s="3">
+        <v>3239</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3224</v>
+      </c>
+      <c r="U9" s="3">
+        <v>3323</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3471</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f t="shared" si="1"/>
+        <v>12877</v>
+      </c>
+      <c r="AK9" s="3">
+        <f t="shared" si="2"/>
+        <v>13257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3154</v>
+        <v>13</v>
       </c>
       <c r="O10" s="3">
-        <v>3239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>638</v>
+      </c>
+      <c r="P10" s="3">
+        <v>632</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>632</v>
+      </c>
+      <c r="R10" s="3">
+        <v>632</v>
+      </c>
+      <c r="S10" s="3">
+        <v>647</v>
+      </c>
+      <c r="T10" s="3">
+        <v>711</v>
+      </c>
+      <c r="U10" s="3">
+        <v>711</v>
+      </c>
+      <c r="V10" s="3">
+        <v>767</v>
+      </c>
+      <c r="AJ10" s="3">
+        <f t="shared" si="1"/>
+        <v>2534</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" si="2"/>
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="3">
-        <v>638</v>
+        <v>14</v>
       </c>
       <c r="O11" s="3">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="3">
-        <f>+SUM(K9:K11)</f>
+        <f>+SUM(O8:O10)</f>
         <v>4999</v>
       </c>
-      <c r="O12" s="3">
-        <f>+SUM(O9:O11)</f>
+      <c r="P11" s="3">
+        <f>+SUM(P8:P10)</f>
+        <v>4965</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>+SUM(Q8:Q10)</f>
+        <v>5009</v>
+      </c>
+      <c r="R11" s="3">
+        <f>+SUM(R8:R10)</f>
+        <v>5344</v>
+      </c>
+      <c r="S11" s="3">
+        <f>+SUM(S8:S10)</f>
         <v>5254</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="3">
+        <f>+SUM(T8:T10)</f>
+        <v>5284</v>
+      </c>
+      <c r="U11" s="3">
+        <f>+SUM(U8:U10)</f>
+        <v>5390</v>
+      </c>
+      <c r="V11" s="3">
+        <f>+SUM(V8:V10)</f>
+        <v>5658</v>
+      </c>
+      <c r="AJ11" s="3">
+        <f>+SUM(AJ8:AJ10)</f>
+        <v>20317</v>
+      </c>
+      <c r="AK11" s="3">
+        <f>+SUM(AK8:AK10)</f>
+        <v>21586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="6">
+        <f>+O7-O11</f>
+        <v>1123</v>
+      </c>
+      <c r="P12" s="6">
+        <f>+P7-P11</f>
+        <v>1525</v>
+      </c>
+      <c r="Q12" s="6">
+        <f>+Q7-Q11</f>
+        <v>1556</v>
+      </c>
+      <c r="R12" s="6">
+        <f>+R7-R11</f>
+        <v>1795</v>
+      </c>
+      <c r="S12" s="6">
+        <f>+S7-S11</f>
+        <v>1717</v>
+      </c>
+      <c r="T12" s="6">
+        <f>+T7-T11</f>
+        <v>1882</v>
+      </c>
+      <c r="U12" s="6">
+        <f>+U7-U11</f>
+        <v>1949</v>
+      </c>
+      <c r="V12" s="6">
+        <f>+V7-V11</f>
+        <v>2118</v>
+      </c>
+      <c r="AJ12" s="6">
+        <f>+AJ7-AJ11</f>
+        <v>5999</v>
+      </c>
+      <c r="AK12" s="6">
+        <f>+AK7-AK11</f>
+        <v>7666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3">
-        <f>+K8-K12</f>
-        <v>1123</v>
+        <v>48</v>
       </c>
       <c r="O13" s="3">
-        <f>+O8-O12</f>
-        <v>1717</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="P13" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>58</v>
+      </c>
+      <c r="R13" s="3">
+        <v>58</v>
+      </c>
+      <c r="S13" s="3">
+        <v>121</v>
+      </c>
+      <c r="T13" s="3">
+        <v>91</v>
+      </c>
+      <c r="U13" s="3">
+        <v>70</v>
+      </c>
+      <c r="V13" s="3">
+        <v>72</v>
+      </c>
+      <c r="AJ13" s="3">
+        <f t="shared" ref="AJ13" si="3">+SUM(O13:R13)</f>
+        <v>216</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" ref="AJ13:AK13" si="4">+SUM(S13:V13)</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <f>+-141+55</f>
-        <v>-86</v>
-      </c>
       <c r="O14" s="3">
-        <f>37+121</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <f>+O12+O13</f>
+        <v>1178</v>
+      </c>
+      <c r="P14" s="3">
+        <f>+P12+P13</f>
+        <v>1570</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>+Q12+Q13</f>
+        <v>1614</v>
+      </c>
+      <c r="R14" s="3">
+        <f>+R12+R13</f>
+        <v>1853</v>
+      </c>
+      <c r="S14" s="3">
+        <f>+S12+S13</f>
+        <v>1838</v>
+      </c>
+      <c r="T14" s="3">
+        <f>+T12+T13</f>
+        <v>1973</v>
+      </c>
+      <c r="U14" s="3">
+        <f>+U12+U13</f>
+        <v>2019</v>
+      </c>
+      <c r="V14" s="3">
+        <f>+V12+V13</f>
+        <v>2190</v>
+      </c>
+      <c r="AJ14" s="3">
+        <f>+AJ12+AJ13</f>
+        <v>6215</v>
+      </c>
+      <c r="AK14" s="3">
+        <f>+AK12+AK13</f>
+        <v>8020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
-        <f>+K13+K14</f>
-        <v>1037</v>
-      </c>
       <c r="O15" s="3">
-        <f>+O13+O14</f>
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="P15" s="3">
+        <v>225</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>263</v>
+      </c>
+      <c r="R15" s="3">
+        <v>199</v>
+      </c>
+      <c r="S15" s="3">
+        <v>334</v>
+      </c>
+      <c r="T15" s="3">
+        <v>408</v>
+      </c>
+      <c r="U15" s="3">
+        <v>219</v>
+      </c>
+      <c r="V15" s="3">
+        <v>280</v>
+      </c>
+      <c r="AJ15" s="3">
+        <f t="shared" ref="AJ15" si="5">+SUM(O15:R15)</f>
+        <v>814</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" ref="AJ15:AK15" si="6">+SUM(S15:V15)</f>
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="3">
-        <v>127</v>
-      </c>
-      <c r="O16" s="3">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="O16" s="6">
+        <f>+O14-O15</f>
+        <v>1051</v>
+      </c>
+      <c r="P16" s="6">
+        <f>+P14-P15</f>
+        <v>1345</v>
+      </c>
+      <c r="Q16" s="6">
+        <f>+Q14-Q15</f>
+        <v>1351</v>
+      </c>
+      <c r="R16" s="6">
+        <f>+R14-R15</f>
+        <v>1654</v>
+      </c>
+      <c r="S16" s="6">
+        <f>+S14-S15</f>
+        <v>1504</v>
+      </c>
+      <c r="T16" s="6">
+        <f>+T14-T15</f>
+        <v>1565</v>
+      </c>
+      <c r="U16" s="6">
+        <f>+U14-U15</f>
+        <v>1800</v>
+      </c>
+      <c r="V16" s="6">
+        <f>+V14-V15</f>
+        <v>1910</v>
+      </c>
+      <c r="AJ16" s="6">
+        <f>+AJ14-AJ15</f>
+        <v>5401</v>
+      </c>
+      <c r="AK16" s="6">
+        <f>+AK14-AK15</f>
+        <v>6779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="3">
-        <f>+K15-K16</f>
-        <v>910</v>
-      </c>
-      <c r="O17" s="3">
-        <f>+O15-O16</f>
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <f>+O16/O18</f>
+        <v>1.0637651821862348</v>
+      </c>
+      <c r="P17" s="4">
+        <f>+P16/P18</f>
+        <v>1.3640973630831643</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>+Q16/Q18</f>
+        <v>1.3771661569826708</v>
+      </c>
+      <c r="R17" s="4">
+        <f>+R16/R18</f>
+        <v>1.6826042726347914</v>
+      </c>
+      <c r="S17" s="4">
+        <f>+S16/S18</f>
+        <v>1.5269035532994923</v>
+      </c>
+      <c r="T17" s="4">
+        <f>+T16/T18</f>
+        <v>1.6084275436793423</v>
+      </c>
+      <c r="U17" s="4">
+        <f>+U16/U18</f>
+        <v>1.8652849740932642</v>
+      </c>
+      <c r="V17" s="4">
+        <f>+V16/V18</f>
+        <v>1.9609856262833676</v>
+      </c>
+      <c r="AJ17" s="4">
+        <f>+AJ16/AJ18</f>
+        <v>5.4860335195530725</v>
+      </c>
+      <c r="AK17" s="4">
+        <f>+AK16/AK18</f>
+        <v>6.9581729535540155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="4">
-        <f>+K17/K19</f>
-        <v>0.92105263157894735</v>
-      </c>
-      <c r="O18" s="4">
-        <f>+O17/O19</f>
-        <v>1.5644670050761422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="3">
+      <c r="O18" s="3">
         <v>988</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P18" s="3">
+        <v>986</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>981</v>
+      </c>
+      <c r="R18" s="3">
+        <v>983</v>
+      </c>
+      <c r="S18" s="3">
         <v>985</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>973</v>
+      </c>
+      <c r="U18" s="3">
+        <v>965</v>
+      </c>
+      <c r="V18" s="3">
+        <v>974</v>
+      </c>
+      <c r="AJ18" s="3">
+        <f>+AVERAGE(O18:R18)</f>
+        <v>984.5</v>
+      </c>
+      <c r="AK18" s="3">
+        <f>+AVERAGE(S18:V18)</f>
+        <v>974.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="8">
+        <f>+O7/O5</f>
+        <v>0.74233054444040258</v>
+      </c>
+      <c r="P20" s="8">
+        <f>+P7/P5</f>
+        <v>0.75438800418458674</v>
+      </c>
+      <c r="Q20" s="8">
+        <f>+Q7/Q5</f>
+        <v>0.75286697247706424</v>
+      </c>
+      <c r="R20" s="8">
+        <f>+R7/R5</f>
+        <v>0.76870894799181655</v>
+      </c>
+      <c r="S20" s="8">
+        <f>+S7/S5</f>
+        <v>0.7632760319719698</v>
+      </c>
+      <c r="T20" s="8">
+        <f>+T7/T5</f>
+        <v>0.76847184986595174</v>
+      </c>
+      <c r="U20" s="8">
+        <f>+U7/U5</f>
+        <v>0.77710715798390517</v>
+      </c>
+      <c r="V20" s="8">
+        <f>+V7/V5</f>
+        <v>0.77814470129090363</v>
+      </c>
+      <c r="AJ20" s="8">
+        <f>+AJ7/AJ5</f>
+        <v>0.75497030725535763</v>
+      </c>
+      <c r="AK20" s="8">
+        <f>+AK7/AK5</f>
+        <v>0.77192241720543608</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O21" s="8">
+        <f>+O12/O5</f>
+        <v>0.13617072874984842</v>
+      </c>
+      <c r="P21" s="8">
+        <f>+P12/P5</f>
+        <v>0.177263745205161</v>
+      </c>
+      <c r="Q21" s="8">
+        <f>+Q12/Q5</f>
+        <v>0.17844036697247706</v>
+      </c>
+      <c r="R21" s="8">
+        <f>+R12/R5</f>
+        <v>0.19328093033272317</v>
+      </c>
+      <c r="S21" s="8">
+        <f>+S12/S5</f>
+        <v>0.18799956202781123</v>
+      </c>
+      <c r="T21" s="8">
+        <f>+T12/T5</f>
+        <v>0.20182305630026809</v>
+      </c>
+      <c r="U21" s="8">
+        <f>+U12/U5</f>
+        <v>0.20637441761965269</v>
+      </c>
+      <c r="V21" s="8">
+        <f>+V12/V5</f>
+        <v>0.21194836385469829</v>
+      </c>
+      <c r="AJ21" s="8">
+        <f>+AJ12/AJ5</f>
+        <v>0.17210316435723097</v>
+      </c>
+      <c r="AK21" s="8">
+        <f>+AK12/AK5</f>
+        <v>0.20229581739015701</v>
+      </c>
+      <c r="AL21" s="8">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22" s="8">
+        <f>+O16/O5</f>
+        <v>0.12744028131441737</v>
+      </c>
+      <c r="P22" s="8">
+        <f>+P16/P5</f>
+        <v>0.1563408113448797</v>
+      </c>
+      <c r="Q22" s="8">
+        <f>+Q16/Q5</f>
+        <v>0.15493119266055047</v>
+      </c>
+      <c r="R22" s="8">
+        <f>+R16/R5</f>
+        <v>0.17809841714224184</v>
+      </c>
+      <c r="S22" s="8">
+        <f>+S16/S5</f>
+        <v>0.16467754297602102</v>
+      </c>
+      <c r="T22" s="8">
+        <f>+T16/T5</f>
+        <v>0.16782841823056299</v>
+      </c>
+      <c r="U22" s="8">
+        <f>+U16/U5</f>
+        <v>0.19059720457433291</v>
+      </c>
+      <c r="V22" s="8">
+        <f>+V16/V5</f>
+        <v>0.19113379365555888</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f>+AJ16/AJ5</f>
+        <v>0.15494735634162435</v>
+      </c>
+      <c r="AK22" s="8">
+        <f>+AK16/AK5</f>
+        <v>0.17888903549280907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="8">
+        <f>+O15/O14</f>
+        <v>0.10780984719864177</v>
+      </c>
+      <c r="P23" s="8">
+        <f>+P15/P14</f>
+        <v>0.14331210191082802</v>
+      </c>
+      <c r="Q23" s="8">
+        <f>+Q15/Q14</f>
+        <v>0.16294919454770757</v>
+      </c>
+      <c r="R23" s="8">
+        <f>+R15/R14</f>
+        <v>0.10739341608202914</v>
+      </c>
+      <c r="S23" s="8">
+        <f>+S15/S14</f>
+        <v>0.18171926006528835</v>
+      </c>
+      <c r="T23" s="8">
+        <f>+T15/T14</f>
+        <v>0.20679168778509882</v>
+      </c>
+      <c r="U23" s="8">
+        <f>+U15/U14</f>
+        <v>0.10846953937592868</v>
+      </c>
+      <c r="V23" s="8">
+        <f>+V15/V14</f>
+        <v>0.12785388127853881</v>
+      </c>
+      <c r="AJ23" s="8">
+        <f>+AJ15/AJ14</f>
+        <v>0.13097345132743363</v>
+      </c>
+      <c r="AK23" s="8">
+        <f>+AK15/AK14</f>
+        <v>0.15473815461346632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="8">
-        <f>+K8/K6</f>
-        <v>0.74233054444040258</v>
-      </c>
-      <c r="O21" s="8">
-        <f>+O8/O6</f>
-        <v>0.7632760319719698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" s="11">
-        <f>+O6/K6-1</f>
+      <c r="O25" s="10" t="e">
+        <f>+O5/K5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" s="10" t="e">
+        <f>+P5/L5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="10" t="e">
+        <f>+Q5/M5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" s="10" t="e">
+        <f>+R5/N5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" s="10">
+        <f>+S5/O5-1</f>
         <v>0.10743300594155447</v>
       </c>
+      <c r="T25" s="10">
+        <f>+T5/P5-1</f>
+        <v>8.3924212484017158E-2</v>
+      </c>
+      <c r="U25" s="10">
+        <f>+U5/Q5-1</f>
+        <v>8.3027522935779752E-2</v>
+      </c>
+      <c r="V25" s="10">
+        <f>+V5/R5-1</f>
+        <v>7.6020243350920724E-2</v>
+      </c>
+      <c r="W25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ25" s="10" t="e">
+        <f>+AJ5/AI5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AK25" s="10">
+        <f>+AK5/AJ5-1</f>
+        <v>8.7156094902028247E-2</v>
+      </c>
+      <c r="AL25" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="3">
+        <v>4491</v>
+      </c>
+      <c r="P27" s="3">
+        <v>808</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1532</v>
+      </c>
+      <c r="R27" s="3">
+        <v>3403</v>
+      </c>
+      <c r="S27" s="3">
+        <v>6247</v>
+      </c>
+      <c r="T27" s="3">
+        <v>892</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1983</v>
+      </c>
+      <c r="V27" s="3">
+        <v>3970</v>
+      </c>
+      <c r="AL27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-243</v>
+      </c>
+      <c r="P28" s="3">
+        <v>-180</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>-166</v>
+      </c>
+      <c r="R28" s="3">
+        <v>-147</v>
+      </c>
+      <c r="S28" s="3">
+        <v>-163</v>
+      </c>
+      <c r="T28" s="3">
+        <v>-137</v>
+      </c>
+      <c r="U28" s="3">
+        <v>-204</v>
+      </c>
+      <c r="V28" s="3">
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" ref="O29:U29" si="7">+O27+O28</f>
+        <v>4248</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="7"/>
+        <v>628</v>
+      </c>
+      <c r="Q29" s="6">
+        <f t="shared" si="7"/>
+        <v>1366</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="7"/>
+        <v>3256</v>
+      </c>
+      <c r="S29" s="6">
+        <f t="shared" si="7"/>
+        <v>6084</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="7"/>
+        <v>755</v>
+      </c>
+      <c r="U29" s="6">
+        <f t="shared" si="7"/>
+        <v>1779</v>
+      </c>
+      <c r="V29" s="6">
+        <f>+V27+V28</f>
+        <v>3816</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8877E205-4809-4C95-9C54-F4EABA58579F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>